--- a/data/trans_orig/IP74A6_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP74A6_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AEB2D79F-D540-4F8C-AF23-4AD8FFEBAF3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C7808BB-18ED-4D95-9C7B-3E67273E39A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{263D4732-EE00-4A56-BF7C-A2C8BA3850ED}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B98C94C7-6FAB-4766-9942-D940604E65E1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,7 +77,7 @@
     <t>No</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>63,31%</t>
@@ -95,7 +95,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>56,25%</t>
@@ -125,7 +125,7 @@
     <t>86,15%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -146,43 +146,43 @@
     <t>75,07%</t>
   </si>
   <si>
-    <t>20,13%</t>
+    <t>23,0%</t>
   </si>
   <si>
     <t>60,81%</t>
   </si>
   <si>
-    <t>15,38%</t>
+    <t>15,75%</t>
   </si>
   <si>
     <t>68,8%</t>
   </si>
   <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
   </si>
   <si>
     <t>24,93%</t>
   </si>
   <si>
-    <t>79,87%</t>
+    <t>77,0%</t>
   </si>
   <si>
     <t>39,19%</t>
   </si>
   <si>
-    <t>84,62%</t>
+    <t>84,25%</t>
   </si>
   <si>
     <t>31,2%</t>
   </si>
   <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>68,0%</t>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -597,7 +597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36942835-A795-47B7-AC40-670F299F5D4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F67620-0909-497F-A6A7-DA62E8EAE94F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/IP74A6_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP74A6_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C7808BB-18ED-4D95-9C7B-3E67273E39A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3C18CC3C-45E8-44AE-BB0C-989001726203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B98C94C7-6FAB-4766-9942-D940604E65E1}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{66165CC4-14F0-4AF6-A22C-8EAC0AB5FBAE}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="50">
-  <si>
-    <t>Adulto según si ha resuelto los pagos de recibos en 2023 (Tasa respuesta: 0,52%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="98">
+  <si>
+    <t>Adulto según si ha resuelto los pagos de recibos en 2023 (Tasa respuesta: 9,17%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,31 +65,67 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>65,62%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>85,29%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>63,31%</t>
+    <t>34,38%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
   </si>
   <si>
     <t>100%</t>
@@ -98,91 +134,199 @@
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>56,25%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>64,55%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>43,75%</t>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>22,17%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>40,4%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>68,8%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>31,2%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
+  </si>
+  <si>
+    <t>57,37%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>74,19%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>75,8%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>24,2%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -597,8 +741,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4F67620-0909-497F-A6A7-DA62E8EAE94F}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD53C0E0-9371-4E1B-9CF4-266AC24868D7}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -715,88 +859,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="D4" s="7">
+        <v>7308</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>17</v>
+      </c>
+      <c r="I4" s="7">
+        <v>10730</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="N4" s="7">
+        <v>18039</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="D5" s="7">
+        <v>3829</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>166</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="N5" s="7">
+        <v>3994</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -805,143 +961,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="D6" s="7">
+        <v>11137</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="I6" s="7">
+        <v>10896</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>38</v>
+      </c>
+      <c r="N6" s="7">
+        <v>22033</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="D7" s="7">
+        <v>12850</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="I7" s="7">
-        <v>656</v>
+        <v>24834</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="N7" s="7">
-        <v>656</v>
+        <v>37684</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>877</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I8" s="7">
-        <v>380</v>
+        <v>5402</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N8" s="7">
-        <v>380</v>
+        <v>6279</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -950,97 +1116,99 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D9" s="7">
+        <v>13727</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="I9" s="7">
-        <v>1036</v>
+        <v>30236</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>2</v>
+        <v>58</v>
       </c>
       <c r="N9" s="7">
-        <v>1036</v>
+        <v>43963</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>938</v>
+        <v>8942</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I10" s="7">
-        <v>391</v>
+        <v>9656</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>16</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M10" s="7">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="N10" s="7">
-        <v>1328</v>
+        <v>18598</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -1049,22 +1217,22 @@
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>729</v>
+        <v>1302</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1073,28 +1241,28 @@
         <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" s="7">
+        <v>2</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1302</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>730</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>15</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1103,149 +1271,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D12" s="7">
-        <v>1667</v>
+        <v>10244</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I12" s="7">
-        <v>391</v>
+        <v>9656</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="N12" s="7">
-        <v>2058</v>
+        <v>19900</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>388</v>
+        <v>20148</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="H13" s="7">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="I13" s="7">
+        <v>12518</v>
+      </c>
       <c r="J13" s="7" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="N13" s="7">
-        <v>388</v>
+        <v>32665</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>18</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D14" s="7">
-        <v>0</v>
+        <v>2864</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>26</v>
+        <v>72</v>
       </c>
       <c r="H14" s="7">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2967</v>
+      </c>
       <c r="J14" s="7" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="M14" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="N14" s="7">
-        <v>0</v>
+        <v>5832</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1254,151 +1426,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D15" s="7">
-        <v>388</v>
+        <v>23012</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>0</v>
-      </c>
-      <c r="I15" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="I15" s="7">
+        <v>15485</v>
+      </c>
       <c r="J15" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="N15" s="7">
-        <v>388</v>
+        <v>38497</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="D16" s="7">
-        <v>872</v>
+        <v>49248</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="I16" s="7">
-        <v>354</v>
+        <v>57738</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>15</v>
+        <v>83</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>16</v>
+        <v>84</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>150</v>
       </c>
       <c r="N16" s="7">
-        <v>1226</v>
+        <v>106986</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>8872</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>15</v>
+        <v>88</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H17" s="7">
+        <v>11</v>
+      </c>
+      <c r="I17" s="7">
+        <v>8535</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M17" s="7">
         <v>26</v>
       </c>
-      <c r="H17" s="7">
-        <v>1</v>
-      </c>
-      <c r="I17" s="7">
-        <v>522</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1</v>
-      </c>
       <c r="N17" s="7">
-        <v>522</v>
+        <v>17407</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1407,217 +1581,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="D18" s="7">
-        <v>872</v>
+        <v>58120</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="I18" s="7">
-        <v>876</v>
+        <v>66273</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>3</v>
+        <v>176</v>
       </c>
       <c r="N18" s="7">
-        <v>1748</v>
+        <v>124393</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>4</v>
-      </c>
-      <c r="D19" s="7">
-        <v>2197</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="7">
-        <v>3</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1400</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="M19" s="7">
-        <v>7</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3597</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="7">
-        <v>1</v>
-      </c>
-      <c r="D20" s="7">
-        <v>730</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2</v>
-      </c>
-      <c r="I20" s="7">
-        <v>902</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="M20" s="7">
-        <v>3</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1632</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>5</v>
-      </c>
-      <c r="D21" s="7">
-        <v>2927</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2302</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M21" s="7">
-        <v>10</v>
-      </c>
-      <c r="N21" s="7">
-        <v>5229</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>49</v>
+      <c r="A19" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
